--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H2">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I2">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J2">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.670688</v>
+        <v>27.30988266666667</v>
       </c>
       <c r="N2">
-        <v>71.01206400000001</v>
+        <v>81.929648</v>
       </c>
       <c r="O2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390243</v>
       </c>
       <c r="P2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390242</v>
       </c>
       <c r="Q2">
-        <v>17.66555280784</v>
+        <v>5.536842025016889</v>
       </c>
       <c r="R2">
-        <v>158.98997527056</v>
+        <v>49.831578225152</v>
       </c>
       <c r="S2">
-        <v>0.1167297114697165</v>
+        <v>0.04145018564015405</v>
       </c>
       <c r="T2">
-        <v>0.1167297114697165</v>
+        <v>0.04145018564015403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H3">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I3">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J3">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>20.371636</v>
       </c>
       <c r="N3">
-        <v>61.11490799999999</v>
+        <v>61.114908</v>
       </c>
       <c r="O3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="P3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="Q3">
-        <v>15.20345380498</v>
+        <v>4.130172644821333</v>
       </c>
       <c r="R3">
-        <v>136.83108424482</v>
+        <v>37.171553803392</v>
       </c>
       <c r="S3">
-        <v>0.1004607551941916</v>
+        <v>0.03091950647683651</v>
       </c>
       <c r="T3">
-        <v>0.1004607551941916</v>
+        <v>0.03091950647683651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H4">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I4">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J4">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.42744333333334</v>
+        <v>42.52135866666666</v>
       </c>
       <c r="N4">
-        <v>139.28233</v>
+        <v>127.564076</v>
       </c>
       <c r="O4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="P4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="Q4">
-        <v>34.64903309688334</v>
+        <v>8.620836951224888</v>
       </c>
       <c r="R4">
-        <v>311.84129787195</v>
+        <v>77.58753256102401</v>
       </c>
       <c r="S4">
-        <v>0.2289524522724735</v>
+        <v>0.06453774378738597</v>
       </c>
       <c r="T4">
-        <v>0.2289524522724735</v>
+        <v>0.06453774378738596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H5">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I5">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J5">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.859721333333333</v>
+        <v>6.417394333333333</v>
       </c>
       <c r="N5">
-        <v>17.579164</v>
+        <v>19.252183</v>
       </c>
       <c r="O5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="P5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="Q5">
-        <v>4.373139329673333</v>
+        <v>1.301071083665778</v>
       </c>
       <c r="R5">
-        <v>39.35825396705999</v>
+        <v>11.709639752992</v>
       </c>
       <c r="S5">
-        <v>0.02889664975234105</v>
+        <v>0.009740143877198373</v>
       </c>
       <c r="T5">
-        <v>0.02889664975234105</v>
+        <v>0.009740143877198369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H6">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I6">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J6">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.60630033333333</v>
+        <v>29.307738</v>
       </c>
       <c r="N6">
-        <v>127.818901</v>
+        <v>87.923214</v>
       </c>
       <c r="O6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="P6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="Q6">
-        <v>31.79729497026833</v>
+        <v>5.941889879104</v>
       </c>
       <c r="R6">
-        <v>286.175654732415</v>
+        <v>53.477008911936</v>
       </c>
       <c r="S6">
-        <v>0.2101088546603329</v>
+        <v>0.04448247528634557</v>
       </c>
       <c r="T6">
-        <v>0.2101088546603328</v>
+        <v>0.04448247528634556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H7">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I7">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J7">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.670688</v>
+        <v>27.30988266666667</v>
       </c>
       <c r="N7">
-        <v>71.01206400000001</v>
+        <v>81.929648</v>
       </c>
       <c r="O7">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390243</v>
       </c>
       <c r="P7">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390242</v>
       </c>
       <c r="Q7">
-        <v>8.117988693269334</v>
+        <v>19.25530614543289</v>
       </c>
       <c r="R7">
-        <v>73.06189823942401</v>
+        <v>173.297755308896</v>
       </c>
       <c r="S7">
-        <v>0.05364171097205626</v>
+        <v>0.1441500426922074</v>
       </c>
       <c r="T7">
-        <v>0.05364171097205626</v>
+        <v>0.1441500426922073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H8">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I8">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J8">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>20.371636</v>
       </c>
       <c r="N8">
-        <v>61.11490799999999</v>
+        <v>61.114908</v>
       </c>
       <c r="O8">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="P8">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="Q8">
-        <v>6.986561214925333</v>
+        <v>14.36337507015733</v>
       </c>
       <c r="R8">
-        <v>62.879050934328</v>
+        <v>129.270375631416</v>
       </c>
       <c r="S8">
-        <v>0.04616551113089472</v>
+        <v>0.1075278218860445</v>
       </c>
       <c r="T8">
-        <v>0.04616551113089472</v>
+        <v>0.1075278218860445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H9">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I9">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J9">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.42744333333334</v>
+        <v>42.52135866666666</v>
       </c>
       <c r="N9">
-        <v>139.28233</v>
+        <v>127.564076</v>
       </c>
       <c r="O9">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="P9">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="Q9">
-        <v>15.92253930419778</v>
+        <v>29.98042096481689</v>
       </c>
       <c r="R9">
-        <v>143.30285373778</v>
+        <v>269.823788683352</v>
       </c>
       <c r="S9">
-        <v>0.1052122987070839</v>
+        <v>0.2244409374417425</v>
       </c>
       <c r="T9">
-        <v>0.1052122987070839</v>
+        <v>0.2244409374417425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H10">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I10">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J10">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.859721333333333</v>
+        <v>6.417394333333333</v>
       </c>
       <c r="N10">
-        <v>17.579164</v>
+        <v>19.252183</v>
       </c>
       <c r="O10">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="P10">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="Q10">
-        <v>2.009622683113778</v>
+        <v>4.524695109551778</v>
       </c>
       <c r="R10">
-        <v>18.086604148024</v>
+        <v>40.722255985966</v>
       </c>
       <c r="S10">
-        <v>0.01327910190609832</v>
+        <v>0.033873000423097</v>
       </c>
       <c r="T10">
-        <v>0.01327910190609832</v>
+        <v>0.033873000423097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H11">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I11">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J11">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.60630033333333</v>
+        <v>29.307738</v>
       </c>
       <c r="N11">
-        <v>127.818901</v>
+        <v>87.923214</v>
       </c>
       <c r="O11">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="P11">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="Q11">
-        <v>14.61205793291844</v>
+        <v>20.663928677692</v>
       </c>
       <c r="R11">
-        <v>131.508521396266</v>
+        <v>185.975358099228</v>
       </c>
       <c r="S11">
-        <v>0.09655295393481129</v>
+        <v>0.1546953436408769</v>
       </c>
       <c r="T11">
-        <v>0.09655295393481127</v>
+        <v>0.1546953436408769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.152942</v>
+      </c>
+      <c r="H12">
+        <v>0.458826</v>
+      </c>
+      <c r="I12">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J12">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.30988266666667</v>
+      </c>
+      <c r="N12">
+        <v>81.929648</v>
+      </c>
+      <c r="O12">
+        <v>0.2168690090390243</v>
+      </c>
+      <c r="P12">
+        <v>0.2168690090390242</v>
+      </c>
+      <c r="Q12">
+        <v>4.176828074805333</v>
+      </c>
+      <c r="R12">
+        <v>37.591452673248</v>
+      </c>
+      <c r="S12">
+        <v>0.03126878070666287</v>
+      </c>
+      <c r="T12">
+        <v>0.03126878070666287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.152942</v>
+      </c>
+      <c r="H13">
+        <v>0.458826</v>
+      </c>
+      <c r="I13">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J13">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.371636</v>
+      </c>
+      <c r="N13">
+        <v>61.114908</v>
+      </c>
+      <c r="O13">
+        <v>0.1617720795708915</v>
+      </c>
+      <c r="P13">
+        <v>0.1617720795708915</v>
+      </c>
+      <c r="Q13">
+        <v>3.115678753112</v>
+      </c>
+      <c r="R13">
+        <v>28.041108778008</v>
+      </c>
+      <c r="S13">
+        <v>0.02332475120801052</v>
+      </c>
+      <c r="T13">
+        <v>0.02332475120801052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.152942</v>
+      </c>
+      <c r="H14">
+        <v>0.458826</v>
+      </c>
+      <c r="I14">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J14">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>42.52135866666666</v>
+      </c>
+      <c r="N14">
+        <v>127.564076</v>
+      </c>
+      <c r="O14">
+        <v>0.3376640254953711</v>
+      </c>
+      <c r="P14">
+        <v>0.3376640254953711</v>
+      </c>
+      <c r="Q14">
+        <v>6.503301637197333</v>
+      </c>
+      <c r="R14">
+        <v>58.529714734776</v>
+      </c>
+      <c r="S14">
+        <v>0.04868534426624262</v>
+      </c>
+      <c r="T14">
+        <v>0.04868534426624262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.152942</v>
+      </c>
+      <c r="H15">
+        <v>0.458826</v>
+      </c>
+      <c r="I15">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J15">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.417394333333333</v>
+      </c>
+      <c r="N15">
+        <v>19.252183</v>
+      </c>
+      <c r="O15">
+        <v>0.05096081761571768</v>
+      </c>
+      <c r="P15">
+        <v>0.05096081761571768</v>
+      </c>
+      <c r="Q15">
+        <v>0.9814891241286666</v>
+      </c>
+      <c r="R15">
+        <v>8.833402117158</v>
+      </c>
+      <c r="S15">
+        <v>0.007347673315422311</v>
+      </c>
+      <c r="T15">
+        <v>0.007347673315422311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.152942</v>
+      </c>
+      <c r="H16">
+        <v>0.458826</v>
+      </c>
+      <c r="I16">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J16">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>29.307738</v>
+      </c>
+      <c r="N16">
+        <v>87.923214</v>
+      </c>
+      <c r="O16">
+        <v>0.2327340682789955</v>
+      </c>
+      <c r="P16">
+        <v>0.2327340682789955</v>
+      </c>
+      <c r="Q16">
+        <v>4.482384065196</v>
+      </c>
+      <c r="R16">
+        <v>40.341456586764</v>
+      </c>
+      <c r="S16">
+        <v>0.03355624935177301</v>
+      </c>
+      <c r="T16">
+        <v>0.03355624935177301</v>
       </c>
     </row>
   </sheetData>
